--- a/medicine/Enfance/Daphné_B/Daphné_B..xlsx
+++ b/medicine/Enfance/Daphné_B/Daphné_B..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Daphn%C3%A9_B.</t>
+          <t>Daphné_B.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Daphné B. est une poète, traductrice littéraire[1], essayiste et chroniqueuse[2] québécoise née en 1990[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daphné B. est une poète, traductrice littéraire, essayiste et chroniqueuse québécoise née en 1990.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Daphn%C3%A9_B.</t>
+          <t>Daphné_B.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Poète et traductrice littéraire, Daphné B. a commencé à écrire vers l’âge de 8 ans[3].
-Elle a obtenu une maîtrise en traductologie ainsi qu’une maîtrise portant sur l’influence des médias sociaux en littérature, La poète 2.0[4]. Elle a d'ailleurs été collaboratrice à l’émission de radio Plus on est de fous, plus on lit, sur les ondes d’Ici Radio-Canada première, dans laquelle elle animait le segment « La vie numérique de Daphné B »[5].
-Elle a co-fondé la plateforme féministe Filles Missiles[6].
-Elle a écrit pour plusieurs revues (Nouveau Projet, Spirale, Vice, Tristesse, Zinc, Exit, etc.) et a participé à plusieurs ouvrages collectifs[7].
-Elle été libraire chez Drawn and Quartely[8] et s’implique tant sur la scène littéraire anglophone que francophone[8],[9].
-Elle anime le balado Choses sérieuses[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poète et traductrice littéraire, Daphné B. a commencé à écrire vers l’âge de 8 ans.
+Elle a obtenu une maîtrise en traductologie ainsi qu’une maîtrise portant sur l’influence des médias sociaux en littérature, La poète 2.0. Elle a d'ailleurs été collaboratrice à l’émission de radio Plus on est de fous, plus on lit, sur les ondes d’Ici Radio-Canada première, dans laquelle elle animait le segment « La vie numérique de Daphné B ».
+Elle a co-fondé la plateforme féministe Filles Missiles.
+Elle a écrit pour plusieurs revues (Nouveau Projet, Spirale, Vice, Tristesse, Zinc, Exit, etc.) et a participé à plusieurs ouvrages collectifs.
+Elle été libraire chez Drawn and Quartely et s’implique tant sur la scène littéraire anglophone que francophone,.
+Elle anime le balado Choses sérieuses.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Daphn%C3%A9_B.</t>
+          <t>Daphné_B.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,12 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Essai
-Maquillée, Montréal, Éditions Marchand de feuilles, 2020, 220 p.  (ISBN 9782925059059)
-Poésie
-La pluie des autres, Montréal, La courte échelle, 2022, 94 p.  (ISBN 9782897744588)[11]
-Delete, Montréal, L’Oie de Cravan, 2017, 125 p.  (ISBN 9782924652114)
-Bluetiful, Montréal, L'écrou 2015, 93 p.  (ISBN 9782981391193)</t>
+          <t>Essai</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Maquillée, Montréal, Éditions Marchand de feuilles, 2020, 220 p.  (ISBN 9782925059059)</t>
         </is>
       </c>
     </row>
@@ -564,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Daphn%C3%A9_B.</t>
+          <t>Daphné_B.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,13 +594,53 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La pluie des autres, Montréal, La courte échelle, 2022, 94 p.  (ISBN 9782897744588)
+Delete, Montréal, L’Oie de Cravan, 2017, 125 p.  (ISBN 9782924652114)
+Bluetiful, Montréal, L'écrou 2015, 93 p.  (ISBN 9782981391193)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Daphné_B.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daphn%C3%A9_B.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Gagnante du Prix des libraires (2021) pour Maquillée[12]
-Finaliste au Prix du Gouverneur général : littérature jeunesse de langue française - texte en 2022 pour La pluie des autres[13]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Gagnante du Prix des libraires (2021) pour Maquillée
+Finaliste au Prix du Gouverneur général : littérature jeunesse de langue française - texte en 2022 pour La pluie des autres</t>
         </is>
       </c>
     </row>
